--- a/bug-reports.xlsx
+++ b/bug-reports.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1stPlayer\Documents\Гит\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1stPlayer\GIT repository\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'баг-репорты '!$A$1:$I$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'баг-репорты '!$A$1:$I$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Blocker</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Нет кнопки/ссылки для входа в личный кабинет при открытии главной страницы</t>
   </si>
   <si>
-    <t>Тестировщик</t>
-  </si>
-  <si>
     <t>Вложения</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Шаги воспроизведения</t>
   </si>
   <si>
-    <t>Тестовые данные</t>
-  </si>
-  <si>
     <t>Предусловия</t>
   </si>
   <si>
@@ -131,13 +125,99 @@
   </si>
   <si>
     <t>https://bumbleby.ru</t>
+  </si>
+  <si>
+    <t>Открыта главная страница https://bumbleby.ru</t>
+  </si>
+  <si>
+    <t>Выполняется вход в игру при незаполненном поле "Ваше имя"</t>
+  </si>
+  <si>
+    <t>Открыта главная страница игры</t>
+  </si>
+  <si>
+    <t>1. Поле "Ваше имя" не заполнено
+2. Ввести до 10 любых символов в поле "Введите ID комнаты", либо нажать кнопку "Создайте комнату"
+3. Нажать кнопку "Начать игру"</t>
+  </si>
+  <si>
+    <t>Кнопка "Начать игру" задизейблена</t>
+  </si>
+  <si>
+    <t>Происходит переход в игру, в "Списке игроков" имя не указано</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Нет ограничения на вводимые символы в полях "Ваше имя", "Введите ID комнаты"</t>
+  </si>
+  <si>
+    <t>1. Вести 16 любых символов или более в поле "Ваше имя" 
+2. Ввести 11 любых символов или более в поле "Введите ID комнаты"
+3. Нажать кнопку "Начать игру"</t>
+  </si>
+  <si>
+    <t>Происходит переход в игру, введенные данные отображаются в ирге</t>
+  </si>
+  <si>
+    <t>Игра "Ассоциации" (тестирование сервера)</t>
+  </si>
+  <si>
+    <t>https://brainup.site/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The home page of the site https://brainup.site/ (English version) is open</t>
+  </si>
+  <si>
+    <t>Precondition:</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>A typo in the name of the "Contacts" section in the navbar menu in English version</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Окружение</t>
+  </si>
+  <si>
+    <t>Windows 10
+Google Chrome 114.0.5735.199</t>
+  </si>
+  <si>
+    <t>In the main menu of the navigation bar, click the button "More"</t>
+  </si>
+  <si>
+    <t>The menu has a section "Contact"</t>
+  </si>
+  <si>
+    <t>The menu has a section "Contacts"</t>
+  </si>
+  <si>
+    <t>Minor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +263,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,8 +278,45 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +331,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FF99CCFF"/>
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -279,20 +395,237 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -305,13 +638,28 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -320,12 +668,12 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -334,13 +682,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -352,53 +741,121 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,6 +866,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -418,6 +880,132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971549</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>838201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACcAAAAVCAYAAADFEfeTAAAAAXNSR0IArs4c6QAAAD5JREFUSEvt0rENAEAMwkDYf2iyg6sU/t7S60K3LU9f/Ry8jHIQLsopRwVo5+aUowK0c3PKUQHauTnlqADtDl++U8LlmDF4AAAAAElFTkSuQmCC"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11439524" y="6819901"/>
+          <a:ext cx="2200276" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAC4AAAAVCAYAAAA5BNxZAAAAAXNSR0IArs4c6QAAAE1JREFUWEft0sEJAEAIA0Htv+hcC/sIB8L6DkFGN0nm4KyLf76a4p/BR3HFoYCvAqFqMcVrlLBIcQhViyleo4RFikOoWkzxGiUsOiv+ACwpU8KXFic2AAAAAElFTkSuQmCC"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11439525" y="6858000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAC4AAAAVCAYAAAA5BNxZAAAAAXNSR0IArs4c6QAAAE1JREFUWEft0sEJAEAIA0Htv+hcC/sIB8L6DkFGN0nm4KyLf76a4p/BR3HFoYCvAqFqMcVrlLBIcQhViyleo4RFikOoWkzxGiUsOiv+ACwpU8KXFic2AAAAAElFTkSuQmCC"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12192000" y="7781925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,172 +1274,379 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="1"/>
+    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:25" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:25" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:25" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>4</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="11" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="15" spans="1:25" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="18" spans="1:25" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="I20" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="21" spans="1:25" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="H5:H8">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G8">
       <formula1>"Blocker,Critical,Major,Minor,Trivial"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
